--- a/biology/Neurosciences/Aire_préoptique_médiane/Aire_préoptique_médiane.xlsx
+++ b/biology/Neurosciences/Aire_préoptique_médiane/Aire_préoptique_médiane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aire_pr%C3%A9optique_m%C3%A9diane</t>
+          <t>Aire_préoptique_médiane</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aire préoptique médiane (APOM) est une partie de l'hypothalamus.  C'est une zone d’intégration très importante pour les stimuli et la motivation sexuelle. Elle est également importante dans la thermogenèse en étant sensible à la libération de cytokines.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aire_pr%C3%A9optique_m%C3%A9diane</t>
+          <t>Aire_préoptique_médiane</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Chez les rats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez le rat, l'aire préoptique médiane est aussi beaucoup plus développée chez le mâle que la femelle (de 3 à 7 fois).  Le volume de l'APOM est corrélée avec le niveau d'activité sexuelle. Le stress entraîne une diminution de sa taille.  Elle est connectée à l'aire tegmentaire latérale du tronc cérébral qui contrôle la copulation. La stimulation de l'aire préoptique médiane entraîne la copulation, tandis qu'une lésion y abolit la copulation. 
 </t>
